--- a/dup/dup_Kantor_Pemerintahan.xlsx
+++ b/dup/dup_Kantor_Pemerintahan.xlsx
@@ -1,37 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\google-maps-scraper\modified\dup\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>reviews_average</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>is_permanently_closed</t>
+  </si>
+  <si>
+    <t>gmaps_link</t>
+  </si>
+  <si>
+    <t>latest_review_date</t>
+  </si>
+  <si>
+    <t>Badan Kepegawaian Pendidikan dan Pelatihan Kabupaten Bantul</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Badan+Kepegawaian+Pendidikan+dan+Pelatihan+Kabupaten+Bantul/@-7.8862429,110.3099063,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56f69d1983:0x227af3c2bbc028b6!8m2!3d-7.8862429!4d110.3279307!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzsqjg0s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>Kantor Kapanewon Tepus</t>
+  </si>
+  <si>
+    <t>WJ5G+FW4, Jalan, Bintaos, Sidoharjo, Tepus, Gunung Kidul Regency, Special Region of Yogyakarta 55881</t>
+  </si>
+  <si>
+    <t>(0274) 7133273</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Kantor+Kapanewon+Tepus/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb0b54c62dbed:0x1917bc17c61f5c5e!8m2!3d-8.0913569!4d110.6273424!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE1XRTNURVpCRUFF4AEA-gEFCKICEEQ!16s%2Fg%2F1pzv3kkwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>sebulan lalu</t>
+  </si>
+  <si>
+    <t>KANTOR PENDAMPING DESA GUNUNGKIDUL</t>
+  </si>
+  <si>
+    <t>0878-8088-6378</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/KANTOR+PENDAMPING+DESA+GUNUNGKIDUL/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3479251891f:0x8e32e968fe5ca8e0!8m2!3d-7.9610216!4d110.5939616!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11cjtjx9fl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>Kantor Gubernur Daerah Istimewa Yogyakarta</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/Yogyakarta+Government+Office/@-7.8056335,110.3636606,13z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>Kantor Bupati Kulon Progo</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/Kantor+Pemerintahan+Kulon+Progo/@-7.785643,110.2422865,11z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +128,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,224 +452,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>website</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reviews_count</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reviews_average</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>latitude</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>longitude</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_permanently_closed</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>latest_review_date</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Badan Kepegawaian Pendidikan dan Pelatihan Kabupaten Bantul</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>-7.886243</v>
-      </c>
-      <c r="H2" t="n">
-        <v>110.327931</v>
-      </c>
-      <c r="I2" t="b">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>-7.8862430000000003</v>
+      </c>
+      <c r="G2">
+        <v>110.32793100000001</v>
+      </c>
+      <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Kepegawaian+Pendidikan+dan+Pelatihan+Kabupaten+Bantul/@-7.8862429,110.3099063,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56f69d1983:0x227af3c2bbc028b6!8m2!3d-7.8862429!4d110.3279307!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzsqjg0s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Kantor Kapanewon Tepus</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>WJ5G+FW4, Jalan, Bintaos, Sidoharjo, Tepus, Gunung Kidul Regency, Special Region of Yogyakarta 55881</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>(0274) 7133273</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
         <v>3.6</v>
       </c>
-      <c r="G3" t="n">
-        <v>-8.091357</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3">
+        <v>-8.0913570000000004</v>
+      </c>
+      <c r="G3">
         <v>110.627342</v>
       </c>
-      <c r="I3" t="b">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Tepus/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb0b54c62dbed:0x1917bc17c61f5c5e!8m2!3d-8.0913569!4d110.6273424!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE1XRTNURVpCRUFF4AEA-gEFCKICEEQ!16s%2Fg%2F1pzv3kkwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>sebulan lalu</t>
-        </is>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>KANTOR PENDAMPING DESA GUNUNGKIDUL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>WJ5G+FW4, Jalan, Bintaos, Sidoharjo, Tepus, Gunung Kidul Regency, Special Region of Yogyakarta 55881</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0878-8088-6378</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>-7.961022</v>
-      </c>
-      <c r="H4" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>-7.9610219999999998</v>
+      </c>
+      <c r="G4">
         <v>110.593962</v>
       </c>
-      <c r="I4" t="b">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KANTOR+PENDAMPING+DESA+GUNUNGKIDUL/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3479251891f:0x8e32e968fe5ca8e0!8m2!3d-7.9610216!4d110.5939616!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11cjtjx9fl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Kantor Gubernur Daerah Istimewa Yogyakarta</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/Yogyakarta+Government+Office/@-7.8056335,110.3636606,13z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Kantor Bupati Kulon Progo</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/Kantor+Pemerintahan+Kulon+Progo/@-7.785643,110.2422865,11z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
